--- a/src/collection/python/data/greenbook_excel/gNGDP_1967_1984.xlsx
+++ b/src/collection/python/data/greenbook_excel/gNGDP_1967_1984.xlsx
@@ -7451,6 +7451,46 @@
         <v>2015.4</v>
       </c>
     </row>
+    <row r="202" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2016.1</v>
+      </c>
+    </row>
+    <row r="203" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2016.2</v>
+      </c>
+    </row>
+    <row r="204" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2016.3</v>
+      </c>
+    </row>
+    <row r="205" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2016.4</v>
+      </c>
+    </row>
+    <row r="206" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2017.1</v>
+      </c>
+    </row>
+    <row r="207" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2017.2</v>
+      </c>
+    </row>
+    <row r="208" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2017.3</v>
+      </c>
+    </row>
+    <row r="209" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2017.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
